--- a/TEST/com_dailystats/documentation/com_daily_stats TEST PLAN.xlsx
+++ b/TEST/com_dailystats/documentation/com_daily_stats TEST PLAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>DailyStatsDaoExecDailyStatsCronEmptyDailyStatsTableOneArticleTest</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>1 daily stats rec 1, 2, 20, 21 days before - 2 pub articles + 1 unpub article</t>
+  </si>
+  <si>
+    <t>Empty daily stats table - 2 pub articles + 1 unpub article, rerun cron on same day</t>
+  </si>
+  <si>
+    <t>DailyStatsDaoExecDailyStatsCronTwiceEmptyDailyStatsTableTwoArticlesTest</t>
   </si>
 </sst>
 </file>
@@ -390,16 +396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -436,17 +442,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/TEST/com_dailystats/documentation/com_daily_stats TEST PLAN.xlsx
+++ b/TEST/com_dailystats/documentation/com_daily_stats TEST PLAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DailyStatsDaoExecDailyStatsCronEmptyDailyStatsTableOneArticleTest</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>DailyStatsDaoExecDailyStatsCronTwiceEmptyDailyStatsTableTwoArticlesTest</t>
+  </si>
+  <si>
+    <t>1 daily stats rec 1, 2, 20, 21 days before - 2 pub articles + 1 newly pub article (with no daily stats)</t>
+  </si>
+  <si>
+    <t>DailyStatsDaoExecDailyStatsCron2ExistingArt1NewlyPubArtTest</t>
   </si>
 </sst>
 </file>
@@ -396,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,6 +468,14 @@
       </c>
       <c r="B7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TEST/com_dailystats/documentation/com_daily_stats TEST PLAN.xlsx
+++ b/TEST/com_dailystats/documentation/com_daily_stats TEST PLAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>DailyStatsDaoExecDailyStatsCronEmptyDailyStatsTableOneArticleTest</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>DailyStatsDaoExecDailyStatsCron2ExistingArt1NewlyPubArtTest</t>
+  </si>
+  <si>
+    <t>1 daily stats rec 1, 2, 20, 21 days before - 1 pub article + 1 new attachment + 1 new invalid daily stats</t>
+  </si>
+  <si>
+    <t>DailyStatsDaoExecDailyStatsCron1DS1Article1NewAttach1NewInvalidDSTest</t>
   </si>
 </sst>
 </file>
@@ -402,16 +408,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -476,6 +482,14 @@
       </c>
       <c r="B8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
